--- a/english_project_only_use.xlsx
+++ b/english_project_only_use.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="11970" windowHeight="3705"/>
   </bookViews>
   <sheets>
-    <sheet name="template" sheetId="1" r:id="rId1"/>
+    <sheet name="words" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -22,10 +22,7 @@
     <t>英語単語</t>
   </si>
   <si>
-    <t>品詞</t>
-  </si>
-  <si>
-    <t>発音記号</t>
+    <t>発音</t>
   </si>
   <si>
     <t>日本語約</t>
@@ -35,19 +32,83 @@
   </si>
   <si>
     <t>作成日付</t>
+  </si>
+  <si>
+    <t>radiculous</t>
+  </si>
+  <si>
+    <t>リディキュラス</t>
+  </si>
+  <si>
+    <t>（笑ってしまうほど）馬鹿げた</t>
+  </si>
+  <si>
+    <t>He had a ridiculous idea to sell cheeseburgers on the Internet.</t>
+  </si>
+  <si>
+    <t>2023/11/15</t>
+  </si>
+  <si>
+    <t>astonished</t>
+  </si>
+  <si>
+    <t>エスターニッシュ</t>
+  </si>
+  <si>
+    <t>驚く</t>
+  </si>
+  <si>
+    <t>I was astonished at the breadth of his knowledge.</t>
+  </si>
+  <si>
+    <t>surrender</t>
+  </si>
+  <si>
+    <t>サレンダー</t>
+  </si>
+  <si>
+    <t>降伏</t>
+  </si>
+  <si>
+    <t>She surrendered the argument to him.</t>
+  </si>
+  <si>
+    <t>bring up</t>
+  </si>
+  <si>
+    <t>ブリング　アップ</t>
+  </si>
+  <si>
+    <t>育てる</t>
+  </si>
+  <si>
+    <t>she brought up four children.</t>
+  </si>
+  <si>
+    <t>do away with</t>
+  </si>
+  <si>
+    <t>ドゥ　アウェイ　ウィズ</t>
+  </si>
+  <si>
+    <t>廃止する</t>
+  </si>
+  <si>
+    <t>We are trying to do away with the old customs.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,14 +117,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -79,9 +147,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,8 +216,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,8 +246,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,60 +264,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,12 +278,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -227,31 +422,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,138 +458,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -403,13 +472,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,6 +507,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,6 +552,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -491,168 +584,177 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -973,40 +1075,141 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.6583333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="39.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" ht="36" customHeight="1" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/english_project_only_use.xlsx
+++ b/english_project_only_use.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11970" windowHeight="3705"/>
+    <workbookView windowWidth="19935" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -95,6 +95,105 @@
   </si>
   <si>
     <t>We are trying to do away with the old customs.</t>
+  </si>
+  <si>
+    <t>go with</t>
+  </si>
+  <si>
+    <t>ゴ　ウィズ</t>
+  </si>
+  <si>
+    <t>似合う</t>
+  </si>
+  <si>
+    <t>This necklace goes with your dress.</t>
+  </si>
+  <si>
+    <t>lay off</t>
+  </si>
+  <si>
+    <t>レイオㇷ</t>
+  </si>
+  <si>
+    <t>(一時的に)解雇する</t>
+  </si>
+  <si>
+    <t>The company laid off some employees.</t>
+  </si>
+  <si>
+    <t>2023/11/22</t>
+  </si>
+  <si>
+    <t>look up to</t>
+  </si>
+  <si>
+    <t>ルックアップトゥ</t>
+  </si>
+  <si>
+    <t>尊敬する</t>
+  </si>
+  <si>
+    <t>I look up to my parents because they are hardworking and kind.</t>
+  </si>
+  <si>
+    <t>put up with</t>
+  </si>
+  <si>
+    <t>プッアップィズ</t>
+  </si>
+  <si>
+    <t>我慢して</t>
+  </si>
+  <si>
+    <t>I put up with my noisy neighbors because I don't want to start a coflict.</t>
+  </si>
+  <si>
+    <t>set out</t>
+  </si>
+  <si>
+    <t>セダウト</t>
+  </si>
+  <si>
+    <t>出かける</t>
+  </si>
+  <si>
+    <t>We set out early in the morning to climb Mount Fuji.</t>
+  </si>
+  <si>
+    <t>stand for</t>
+  </si>
+  <si>
+    <t>ステェンドフォー</t>
+  </si>
+  <si>
+    <t>表す</t>
+  </si>
+  <si>
+    <t>The letter 'A' stand for 'Apple' in this code.</t>
+  </si>
+  <si>
+    <t>take after</t>
+  </si>
+  <si>
+    <t>テイケアフタ</t>
+  </si>
+  <si>
+    <t>誰かに似ている</t>
+  </si>
+  <si>
+    <t>She takes after her grandfather.</t>
+  </si>
+  <si>
+    <t>take A into account</t>
+  </si>
+  <si>
+    <t>テイケAイントアキャウント</t>
+  </si>
+  <si>
+    <t>Aを考慮する</t>
+  </si>
+  <si>
+    <t>He took her opinion into account.</t>
   </si>
 </sst>
 </file>
@@ -103,10 +202,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -148,7 +247,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,17 +255,40 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,6 +309,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -194,76 +361,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,187 +377,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,6 +596,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -513,24 +627,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,17 +656,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,145 +691,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -753,8 +852,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1075,19 +1174,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.6583333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.9" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.05" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="75.4666666666667" style="2" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3" customWidth="1"/>
   </cols>
@@ -1113,16 +1212,16 @@
       </c>
     </row>
     <row r="2" ht="36" customHeight="1" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1133,19 +1232,19 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1153,63 +1252,223 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
